--- a/Crédito disponível - Centralização - Campus Glória.xlsx
+++ b/Crédito disponível - Centralização - Campus Glória.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Crédito disponível - Centralização - Campus Glória</t>
   </si>
@@ -387,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -569,10 +569,10 @@
         <v>20000</v>
       </c>
       <c r="N9" s="12">
-        <v>8651.84</v>
+        <v>9399.04</v>
       </c>
       <c r="O9" s="13">
-        <v>8049.14</v>
+        <v>9157.96</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         <v>24020.77</v>
       </c>
       <c r="N11" s="12">
-        <v>7712.69</v>
+        <v>9511.36</v>
       </c>
       <c r="O11" s="13">
         <v>7712.69</v>
@@ -650,10 +650,10 @@
         <v>665408.87</v>
       </c>
       <c r="N12" s="12">
-        <v>329591.2</v>
+        <v>417328.94</v>
       </c>
       <c r="O12" s="13">
-        <v>319992.42</v>
+        <v>355865.13</v>
       </c>
     </row>
     <row r="13">
@@ -679,10 +679,10 @@
         <v>227440.64</v>
       </c>
       <c r="N13" s="12">
-        <v>90786.52</v>
+        <v>93156.52</v>
       </c>
       <c r="O13" s="13">
-        <v>90786.52</v>
+        <v>93156.52</v>
       </c>
     </row>
     <row r="14">
@@ -935,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="12">
-        <v>266830.99</v>
+        <v>162957.44</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
@@ -970,38 +970,22 @@
       <c r="O23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="11">
-        <v>3</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K24" s="12">
-        <v>0</v>
+        <v>103873.55</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -1009,130 +993,169 @@
       <c r="O24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I25" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
       </c>
       <c r="L25" s="12"/>
-      <c r="M25" s="12">
-        <v>2516</v>
-      </c>
-      <c r="N25" s="12">
-        <v>2516</v>
-      </c>
-      <c r="O25" s="13">
-        <v>2516</v>
-      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="11">
-        <v>3</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
       </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
+      <c r="M26" s="12">
+        <v>2516</v>
+      </c>
+      <c r="N26" s="12">
+        <v>2516</v>
+      </c>
+      <c r="O26" s="13">
+        <v>2516</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="11">
+        <v>3</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I27" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
       </c>
       <c r="L27" s="12"/>
-      <c r="M27" s="12">
-        <v>150195</v>
-      </c>
-      <c r="N27" s="12">
-        <v>48759</v>
-      </c>
-      <c r="O27" s="13">
-        <v>47969</v>
-      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12">
+        <v>150195</v>
+      </c>
+      <c r="N28" s="12">
+        <v>63495</v>
+      </c>
+      <c r="O28" s="13">
+        <v>47969</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G29" s="15">
         <v>3</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K29" s="12">
         <v>8701</v>
       </c>
-      <c r="L28" s="12">
-        <v>0</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="13"/>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1143,8 +1166,8 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A23"/>
-    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="B8:B24"/>
     <mergeCell ref="C8:C18"/>
     <mergeCell ref="D8:D18"/>
     <mergeCell ref="E8:E16"/>
@@ -1155,30 +1178,30 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Glória.xlsx
+++ b/Crédito disponível - Centralização - Campus Glória.xlsx
@@ -569,10 +569,10 @@
         <v>20000</v>
       </c>
       <c r="N9" s="12">
-        <v>9399.04</v>
+        <v>9519.58</v>
       </c>
       <c r="O9" s="13">
-        <v>9157.96</v>
+        <v>9278.5</v>
       </c>
     </row>
     <row r="10">
@@ -650,10 +650,10 @@
         <v>665408.87</v>
       </c>
       <c r="N12" s="12">
-        <v>417328.94</v>
+        <v>417357.09</v>
       </c>
       <c r="O12" s="13">
-        <v>355865.13</v>
+        <v>357010.17</v>
       </c>
     </row>
     <row r="13">
@@ -1121,7 +1121,7 @@
         <v>63495</v>
       </c>
       <c r="O28" s="13">
-        <v>47969</v>
+        <v>62355</v>
       </c>
     </row>
     <row r="29">

--- a/Crédito disponível - Centralização - Campus Glória.xlsx
+++ b/Crédito disponível - Centralização - Campus Glória.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Crédito disponível - Centralização - Campus Glória</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">INST.FED.DE EDUC.,CIENC.E TEC.DE SERGIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449000</t>
   </si>
   <si>
     <t xml:space="preserve">2994</t>
@@ -387,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -569,10 +575,10 @@
         <v>20000</v>
       </c>
       <c r="N9" s="12">
-        <v>9519.58</v>
+        <v>10985.04</v>
       </c>
       <c r="O9" s="13">
-        <v>9278.5</v>
+        <v>10985.04</v>
       </c>
     </row>
     <row r="10">
@@ -621,10 +627,10 @@
         <v>24020.77</v>
       </c>
       <c r="N11" s="12">
-        <v>9511.36</v>
+        <v>10972.47</v>
       </c>
       <c r="O11" s="13">
-        <v>7712.69</v>
+        <v>10972.47</v>
       </c>
     </row>
     <row r="12">
@@ -650,10 +656,10 @@
         <v>665408.87</v>
       </c>
       <c r="N12" s="12">
-        <v>417357.09</v>
+        <v>518911.81</v>
       </c>
       <c r="O12" s="13">
-        <v>357010.17</v>
+        <v>503460.59</v>
       </c>
     </row>
     <row r="13">
@@ -679,10 +685,10 @@
         <v>227440.64</v>
       </c>
       <c r="N13" s="12">
-        <v>93156.52</v>
+        <v>124121.68</v>
       </c>
       <c r="O13" s="13">
-        <v>93156.52</v>
+        <v>124121.68</v>
       </c>
     </row>
     <row r="14">
@@ -708,10 +714,10 @@
         <v>27330.74</v>
       </c>
       <c r="N14" s="12">
-        <v>14397.8</v>
+        <v>16757.64</v>
       </c>
       <c r="O14" s="13">
-        <v>14397.8</v>
+        <v>16757.64</v>
       </c>
     </row>
     <row r="15">
@@ -737,10 +743,10 @@
         <v>4799.21</v>
       </c>
       <c r="N15" s="12">
-        <v>2325.77</v>
+        <v>3049.13</v>
       </c>
       <c r="O15" s="13">
-        <v>2325.77</v>
+        <v>3049.13</v>
       </c>
     </row>
     <row r="16">
@@ -819,63 +825,71 @@
       <c r="M18" s="12">
         <v>192085.06</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
+      <c r="N18" s="12">
+        <v>76285.44</v>
+      </c>
+      <c r="O18" s="13">
+        <v>38142.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="11">
-        <v>3</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K19" s="12">
         <v>0</v>
       </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
+        <v>54.87</v>
+      </c>
+      <c r="N19" s="12">
+        <v>54.87</v>
+      </c>
+      <c r="O19" s="13">
+        <v>54.87</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="I20" s="11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K20" s="12">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -889,57 +903,47 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="11">
+        <v>3</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I21" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K21" s="12">
-        <v>35113.9</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12">
-        <v>784</v>
-      </c>
-      <c r="N21" s="12">
-        <v>784</v>
-      </c>
-      <c r="O21" s="13">
-        <v>784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" s="12">
-        <v>162957.44</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
@@ -954,86 +958,90 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K23" s="12">
-        <v>0</v>
+        <v>35113.9</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12">
-        <v>4166.8</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
+        <v>784</v>
+      </c>
+      <c r="N23" s="12">
+        <v>784</v>
+      </c>
+      <c r="O23" s="13">
+        <v>784</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="11">
+        <v>3</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I24" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>103873.55</v>
-      </c>
-      <c r="L24" s="12"/>
+        <v>155360.96</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="11">
-        <v>3</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
       </c>
       <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
+      <c r="M25" s="12">
+        <v>9278.61</v>
+      </c>
+      <c r="N25" s="12">
+        <v>1179.94</v>
+      </c>
+      <c r="O25" s="13">
+        <v>738.8</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1041,124 +1049,242 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12">
-        <v>2516</v>
-      </c>
-      <c r="N26" s="12">
-        <v>2516</v>
-      </c>
-      <c r="O26" s="13">
-        <v>2516</v>
-      </c>
+        <v>100095.04</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="11">
-        <v>3</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K27" s="12">
-        <v>0</v>
+        <v>3720.98</v>
       </c>
       <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="M27" s="12">
+        <v>2487.33</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="11">
+        <v>3</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I28" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K28" s="12">
         <v>0</v>
       </c>
       <c r="L28" s="12"/>
-      <c r="M28" s="12">
-        <v>150195</v>
-      </c>
-      <c r="N28" s="12">
-        <v>63495</v>
-      </c>
-      <c r="O28" s="13">
-        <v>62355</v>
-      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12">
+        <v>2516</v>
+      </c>
+      <c r="N29" s="12">
+        <v>2516</v>
+      </c>
+      <c r="O29" s="13">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="11">
+        <v>3</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12">
+        <v>150195</v>
+      </c>
+      <c r="N31" s="12">
+        <v>66041</v>
+      </c>
+      <c r="O31" s="13">
+        <v>65951</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G32" s="15">
         <v>3</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="12">
-        <v>8701</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13"/>
+      <c r="K32" s="12">
+        <v>7201</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12">
+        <v>1500</v>
+      </c>
+      <c r="N33" s="12">
+        <v>750</v>
+      </c>
+      <c r="O33" s="13">
+        <v>750</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="47">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1166,42 +1292,46 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="C8:C19"/>
+    <mergeCell ref="D8:D19"/>
     <mergeCell ref="E8:E16"/>
     <mergeCell ref="F8:F16"/>
     <mergeCell ref="G8:G16"/>
     <mergeCell ref="H8:H16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Glória.xlsx
+++ b/Crédito disponível - Centralização - Campus Glória.xlsx
@@ -575,10 +575,10 @@
         <v>20000</v>
       </c>
       <c r="N9" s="12">
-        <v>10985.04</v>
+        <v>11946.77</v>
       </c>
       <c r="O9" s="13">
-        <v>10985.04</v>
+        <v>11946.77</v>
       </c>
     </row>
     <row r="10">
@@ -659,7 +659,7 @@
         <v>518911.81</v>
       </c>
       <c r="O12" s="13">
-        <v>503460.59</v>
+        <v>510606.16</v>
       </c>
     </row>
     <row r="13">
@@ -685,7 +685,7 @@
         <v>227440.64</v>
       </c>
       <c r="N13" s="12">
-        <v>124121.68</v>
+        <v>126881.68</v>
       </c>
       <c r="O13" s="13">
         <v>124121.68</v>
@@ -1036,7 +1036,7 @@
         <v>1179.94</v>
       </c>
       <c r="O25" s="13">
-        <v>738.8</v>
+        <v>1179.94</v>
       </c>
     </row>
     <row r="26">
@@ -1215,7 +1215,7 @@
         <v>150195</v>
       </c>
       <c r="N31" s="12">
-        <v>66041</v>
+        <v>66241</v>
       </c>
       <c r="O31" s="13">
         <v>65951</v>

--- a/Crédito disponível - Centralização - Campus Glória.xlsx
+++ b/Crédito disponível - Centralização - Campus Glória.xlsx
@@ -829,7 +829,7 @@
         <v>76285.44</v>
       </c>
       <c r="O18" s="13">
-        <v>38142.72</v>
+        <v>67509.84</v>
       </c>
     </row>
     <row r="19">
@@ -1215,10 +1215,10 @@
         <v>150195</v>
       </c>
       <c r="N31" s="12">
-        <v>66241</v>
+        <v>80377</v>
       </c>
       <c r="O31" s="13">
-        <v>65951</v>
+        <v>66151</v>
       </c>
     </row>
     <row r="32">
